--- a/ConsoleUI/data.xlsx
+++ b/ConsoleUI/data.xlsx
@@ -5,17 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oleg\Desktop\Parser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oleg\source\repos\MarkReport\ConsoleUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328D2CA7-3F65-4604-9BB5-7405158AD0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920236EC-A893-4755-841A-C8F94CB9CB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="subjects" sheetId="2" r:id="rId1"/>
-    <sheet name="study_program" sheetId="4" r:id="rId2"/>
-    <sheet name="students" sheetId="3" r:id="rId3"/>
+    <sheet name="study_program" sheetId="4" r:id="rId1"/>
+    <sheet name="students" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>Курс</t>
   </si>
@@ -71,9 +70,6 @@
     <t>Alice Cooper</t>
   </si>
   <si>
-    <t>MT-198</t>
-  </si>
-  <si>
     <t>Ben Parker</t>
   </si>
   <si>
@@ -89,19 +85,28 @@
     <t>Study Program</t>
   </si>
   <si>
-    <t>Subject</t>
-  </si>
-  <si>
     <t>Control Type</t>
   </si>
   <si>
     <t>дисциплина</t>
   </si>
   <si>
-    <t>AT-201, МТ-198</t>
-  </si>
-  <si>
     <t>Группы</t>
+  </si>
+  <si>
+    <t>AT-202</t>
+  </si>
+  <si>
+    <t>AT-201, AT-202</t>
+  </si>
+  <si>
+    <t>Subject1</t>
+  </si>
+  <si>
+    <t>Subject2</t>
+  </si>
+  <si>
+    <t>Subject3</t>
   </si>
 </sst>
 </file>
@@ -135,9 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -354,131 +357,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AA3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="N1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222D8D3B-9DBD-43FA-B396-8D9B13E6529B}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -490,45 +373,64 @@
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>2020</v>
@@ -539,8 +441,67 @@
       <c r="F2">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -548,12 +509,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -581,26 +542,26 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
